--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-10T13:33:39+05:45</t>
+    <t>2025-08-12T23:24:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T23:24:39+05:45</t>
+    <t>2025-08-13T23:06:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T23:06:39+05:45</t>
+    <t>2025-08-14T11:08:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -26,7 +26,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.hmis.gov.np/ValueSet/educational-level</t>
+    <t>https://fhir.hmis.gov.np/ValueSet/educational-level</t>
   </si>
   <si>
     <t>Version</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T11:08:36+05:45</t>
+    <t>2025-08-14T14:11:38+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:11:38+05:45</t>
+    <t>2025-08-14T18:06:03+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T18:06:03+05:45</t>
+    <t>2025-08-15T10:07:00+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-15T10:07:00+05:45</t>
+    <t>2025-08-19T07:52:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -8,14 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
-    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -62,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:52:08+05:45</t>
+    <t>2025-08-20T08:30:34+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -89,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Combined SNOMED CT, HL7 v3, and local codes for the highest level of education attained.</t>
+    <t>SNOMED CT for the highest level of education attained.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -107,37 +105,16 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>224303000</t>
-  </si>
-  <si>
-    <t>No schooling</t>
-  </si>
-  <si>
-    <t>105421009</t>
-  </si>
-  <si>
-    <t>Illiterate</t>
-  </si>
-  <si>
-    <t>224297000</t>
-  </si>
-  <si>
-    <t>Primary school education</t>
-  </si>
-  <si>
-    <t>310172006</t>
-  </si>
-  <si>
-    <t>Secondary school education</t>
-  </si>
-  <si>
-    <t>224300002</t>
-  </si>
-  <si>
-    <t>University education</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>is-a</t>
+  </si>
+  <si>
+    <t>365458002</t>
   </si>
   <si>
     <t/>
@@ -147,66 +124,6 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>NOED</t>
-  </si>
-  <si>
-    <t>No education</t>
-  </si>
-  <si>
-    <t>ELEM</t>
-  </si>
-  <si>
-    <t>Elementary school</t>
-  </si>
-  <si>
-    <t>SEC</t>
-  </si>
-  <si>
-    <t>Secondary school</t>
-  </si>
-  <si>
-    <t>BACH</t>
-  </si>
-  <si>
-    <t>Bachelor's degree</t>
-  </si>
-  <si>
-    <t>MSTR</t>
-  </si>
-  <si>
-    <t>Master's degree</t>
-  </si>
-  <si>
-    <t>DOC</t>
-  </si>
-  <si>
-    <t>Doctorate</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v3-EducationLevel</t>
-  </si>
-  <si>
-    <t>60957-0</t>
-  </si>
-  <si>
-    <t>Highest education level attained</t>
-  </si>
-  <si>
-    <t>82589-3</t>
-  </si>
-  <si>
-    <t>Highest level of education [US Standard]</t>
-  </si>
-  <si>
-    <t>96777-4</t>
-  </si>
-  <si>
-    <t>Education level</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
@@ -483,7 +400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -495,10 +412,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>30</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>23</v>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -508,10 +428,13 @@
       <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
+      <c r="C2" t="s" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>34</v>
@@ -523,192 +446,6 @@
       </c>
       <c r="B4" t="s" s="2">
         <v>36</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-educational-level.xlsx
+++ b/output/ValueSet-educational-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
